--- a/SafeAssignmentSystem/wwwroot/Seed.xlsx
+++ b/SafeAssignmentSystem/wwwroot/Seed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\C#\Project\SafeAssignmentSystem\SafeAssignmentSystem\SafeAssignmentSystem\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\C#\Project\SafeAssignmentSystem\SafeAssignmentSystem\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="12">
   <si>
     <t>смяна</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>о</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN15" sqref="AN15"/>
+      <selection pane="bottomLeft" activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,7 +616,7 @@
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="5.375" customWidth="1"/>
-    <col min="4" max="34" width="2.125" customWidth="1"/>
+    <col min="4" max="34" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,69 +981,99 @@
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="N6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -1762,64 +1795,98 @@
       <c r="C16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
-      <c r="S16" s="1">
-        <v>2</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1">
-        <v>2</v>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="14">
-        <v>1</v>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
